--- a/CODE_PANDEMIC/Document/PuzzleData.xlsx
+++ b/CODE_PANDEMIC/Document/PuzzleData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE_PANDEMIC\CODE_PANDEMIC\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33463A4-57DF-411C-858C-2B7E9673A02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1A4DB2-7720-4D2B-B1B0-3F2A5514218F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4860" yWindow="3675" windowWidth="17325" windowHeight="10230" xr2:uid="{FAF49D46-5682-4541-92CD-18A7AC3DFC94}"/>
   </bookViews>
@@ -73,9 +73,6 @@
     <t>PZ_Parking_Prefab</t>
   </si>
   <si>
-    <t>PZ_Fish_Sign_Prefab</t>
-  </si>
-  <si>
     <t>방어구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,7 +81,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PZ_Soccer_Ball_Prefab</t>
+    <t>PZ_Soccer_Prefab</t>
+  </si>
+  <si>
+    <t>PZ_Fish_Puzzle_Prefab</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -533,10 +533,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -559,10 +559,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>1</v>
